--- a/Optymalizacja.xlsx
+++ b/Optymalizacja.xlsx
@@ -5,125 +5,73 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Łukasz\Desktop\Julcia\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mgr sem3\kody komputerowe\projekt_R_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="Zad 68" sheetId="2" r:id="rId1"/>
-    <sheet name="Zad 75" sheetId="1" r:id="rId2"/>
+    <sheet name="Zad 75" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Zad 68'!$B$11:$E$13</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Zad 75'!$B$27:$G$29</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Zad 75'!$B$27:$G$29</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Zad 68'!$B$11:$E$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Zad 75'!$B$27:$G$29</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">'Zad 75'!$I$31</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Zad 68'!$G$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Zad 75'!$I$23</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Zad 68'!$G$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Zad 75'!$I$24</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Zad 68'!$G$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Zad 75'!$I$25</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Zad 68'!$G$14</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Zad 75'!$I$26</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Zad 68'!$G$15</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Zad 75'!$I$27</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Zad 68'!$G$16</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Zad 75'!$I$28</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Zad 68'!$G$17</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Zad 75'!$I$29</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">'Zad 75'!$I$30</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Zad 75'!$B$27:$G$29</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Zad 75'!$I$31</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Zad 75'!$I$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Zad 75'!$I$24</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Zad 75'!$I$25</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Zad 75'!$I$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Zad 75'!$I$27</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Zad 75'!$I$28</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Zad 75'!$I$29</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Zad 75'!$I$30</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">8</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">10</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Zad 68'!$B$17</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Zad 75'!$B$32</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Zad 75'!$B$32</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel10" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel9" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">całkowita</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">całkowita</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">'Zad 75'!$K$31</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Zad 68'!$I$11</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Zad 75'!$K$23</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Zad 68'!$I$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Zad 75'!$K$24</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Zad 68'!$I$13</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Zad 75'!$K$25</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Zad 68'!$I$14</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Zad 75'!$K$26</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Zad 68'!$I$15</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Zad 75'!$K$27</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Zad 68'!$I$16</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Zad 75'!$K$28</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Zad 68'!$I$17</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Zad 75'!$K$29</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">'Zad 75'!$K$30</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Zad 75'!$K$31</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Zad 75'!$K$23</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Zad 75'!$K$24</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Zad 75'!$K$25</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Zad 75'!$K$26</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Zad 75'!$K$27</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Zad 75'!$K$28</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Zad 75'!$K$29</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Zad 75'!$K$30</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -135,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>Zakłady</t>
   </si>
@@ -177,39 +125,6 @@
   </si>
   <si>
     <t>zapotrzebowanie</t>
-  </si>
-  <si>
-    <t>Gospodarstwa</t>
-  </si>
-  <si>
-    <t>Przetwórnie</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>Podaż</t>
-  </si>
-  <si>
-    <t>Popyt</t>
   </si>
   <si>
     <t>=</t>
@@ -282,11 +197,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,25 +208,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,416 +499,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>SUM(B11:E11)</f>
-        <v>1200</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <f>H2</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>800</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G13" si="0">SUM(B12:E12)</f>
-        <v>800</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <f>H3</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6">
-        <v>700</v>
-      </c>
-      <c r="C13" s="6">
-        <v>500</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <f>H4</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <f>SUM(B11:B13)</f>
-        <v>700</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14">
-        <f>I5</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(C11:C13)</f>
-        <v>700</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <f>I6</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <f>SUM(D11:D13)</f>
-        <v>1000</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16">
-        <f>I7</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <f>SUMPRODUCT(B11:E13,B3:E5)</f>
-        <v>7900</v>
-      </c>
-      <c r="G17">
-        <f>SUM(E11:E13)</f>
-        <v>800</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17">
-        <f>I8</f>
-        <v>800</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>225</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>12+220</f>
         <v>232</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>10+220</f>
         <v>230</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <f>8+220</f>
         <v>228</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="E3:F3" si="0">10+220</f>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3" si="0">10+220</f>
         <v>230</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>2+220</f>
         <v>222</v>
       </c>
@@ -1029,35 +606,35 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f>5+200</f>
         <v>205</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>7+200</f>
         <v>207</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>15+200</f>
         <v>215</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <f>10+200</f>
         <v>210</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f>14+200</f>
         <v>214</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f>3+200</f>
         <v>203</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J4">
@@ -1076,44 +653,44 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>8+210</f>
         <v>218</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>13+210</f>
         <v>223</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f>7+210</f>
         <v>217</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <f>16+210</f>
         <v>226</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f>9+210</f>
         <v>219</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>3+210</f>
         <v>213</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>4000</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>210</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>3</v>
       </c>
       <c r="O5" t="s">
@@ -1123,7 +700,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +708,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O7" t="s">
         <v>6</v>
       </c>
@@ -1139,23 +716,23 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>1000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>2000</v>
       </c>
       <c r="I8">
@@ -1163,37 +740,37 @@
         <v>5000</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K8">
         <f>J3</f>
         <v>5000</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="P8">
         <f>SUM(J3:J5)-SUM(P3:P7)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="I9">
@@ -1201,30 +778,30 @@
         <v>6000</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K9">
         <f>J4</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="13">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="I10">
@@ -1232,42 +809,42 @@
         <v>4000</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K10">
         <f>J5</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I11">
         <f>SUM(B8:B10)</f>
         <v>4000</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K11">
         <f>P3</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I12">
         <f>SUM(C8:C10)</f>
         <v>3000</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K12">
         <f>P4</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <f>SUMPRODUCT(B3:G5,B8:G10)</f>
@@ -1278,138 +855,138 @@
         <v>2000</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K13">
         <f>P5</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I14">
         <f>SUM(E8:E10)</f>
         <v>1000</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K14">
         <f>P6</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I15">
         <f>SUM(F8:F10)</f>
         <v>3000</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K15">
         <f>P7</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I16">
         <f>SUM(G8:G10)</f>
         <v>2000</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K16">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>225</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f>12+220</f>
         <v>232</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <f>10+220</f>
         <v>230</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <f>8+220</f>
         <v>228</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <f t="shared" ref="F22" si="1">10+220</f>
         <v>230</v>
       </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <f>5+200</f>
         <v>205</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f>7+200</f>
         <v>207</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <f>15+200</f>
         <v>215</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <f>10+200</f>
         <v>210</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <f>14+200</f>
         <v>214</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="I23">
@@ -1417,37 +994,37 @@
         <v>5000</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K23">
         <v>5000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <f>8+210</f>
         <v>218</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f>13+210</f>
         <v>223</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <f>7+210</f>
         <v>217</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <f>16+210</f>
         <v>226</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <f>9+210</f>
         <v>219</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="I24">
@@ -1455,54 +1032,54 @@
         <v>6000</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K24">
         <v>6000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I25">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I26">
         <f>SUM(B27:B29)</f>
         <v>4000</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K26">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5">
         <v>1000</v>
       </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
         <v>1000</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>1000</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>2000</v>
       </c>
       <c r="I27">
@@ -1510,29 +1087,29 @@
         <v>3000</v>
       </c>
       <c r="J27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K27">
         <v>3000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3000</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <v>0</v>
       </c>
       <c r="I28">
@@ -1540,29 +1117,29 @@
         <v>2000</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K28">
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G29" s="7">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="5">
         <v>0</v>
       </c>
       <c r="I29">
@@ -1570,39 +1147,39 @@
         <v>1000</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K29">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I30">
         <f>SUM(F27:F29)</f>
         <v>3000</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K30">
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I31">
         <f>SUM(G27:G29)</f>
         <v>2000</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <f>SUMPRODUCT(B22:G24,B27:G29)</f>
